--- a/exel/report_reg.xlsx
+++ b/exel/report_reg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,40 +453,40 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>г. Москва</t>
+          <t>Рязанская область</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6986947</v>
+        <v>3687300</v>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>г. Санкт-Петербург</t>
+          <t>Пермская область</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4761144</v>
+        <v>3494426</v>
       </c>
       <c r="C3" t="n">
-        <v>23.8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Пермская область</t>
+          <t>г. Москва</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3648232</v>
+        <v>1314753</v>
       </c>
       <c r="C4" t="n">
-        <v>18.3</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="5">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1483192</v>
+        <v>953493</v>
       </c>
       <c r="C5" t="n">
         <v>7.4</v>
@@ -505,141 +505,141 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ленинградская область</t>
+          <t>Нижегородская область</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1077486</v>
+        <v>844470</v>
       </c>
       <c r="C6" t="n">
-        <v>5.4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Республика Саха (Якутия)</t>
+          <t>Тамбовская область</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>554000</v>
+        <v>790505</v>
       </c>
       <c r="C7" t="n">
-        <v>2.8</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Тюменская область</t>
+          <t>Алтайский край</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>344060</v>
+        <v>597201</v>
       </c>
       <c r="C8" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ростовская область</t>
+          <t>Республика Башкортостан</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>230185</v>
+        <v>301288</v>
       </c>
       <c r="C9" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Иркутская область</t>
+          <t>Самарская область</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>158000</v>
+        <v>244085</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Краснодарский край</t>
+          <t>Волгоградская область</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>89782</v>
+        <v>193425</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Магаданская область</t>
+          <t>Белгородская область</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>84000</v>
+        <v>135350</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Тульская область</t>
+          <t>Ярославская область</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>81107</v>
+        <v>111531</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Республика Башкортостан</t>
+          <t>г. Санкт-Петербург</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>68064</v>
+        <v>83567</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Амурская область</t>
+          <t>Свердловская область</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>66000</v>
+        <v>68120</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Приморский край</t>
+          <t>Тульская область</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58232</v>
+        <v>34713</v>
       </c>
       <c r="C16" t="n">
         <v>0.3</v>
@@ -648,11 +648,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Калининградская область</t>
+          <t>Челябинская область</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>51738</v>
+        <v>32827</v>
       </c>
       <c r="C17" t="n">
         <v>0.3</v>
@@ -661,11 +661,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Волгоградская область</t>
+          <t>Красноярский край</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>38000</v>
+        <v>26247</v>
       </c>
       <c r="C18" t="n">
         <v>0.2</v>
@@ -674,24 +674,24 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Республика Татарстан (Татарстан)</t>
+          <t>Ленинградская область</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>37676</v>
+        <v>11220</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Нижегородская область</t>
+          <t>Ростовская область</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>27258</v>
+        <v>6493</v>
       </c>
       <c r="C20" t="n">
         <v>0.1</v>
@@ -700,14 +700,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Омская область</t>
+          <t>Республика Татарстан (Татарстан)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>25536</v>
+        <v>3600</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="22">
@@ -717,167 +717,50 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>22942</v>
+        <v>2564</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ямало-Ненецкий автономный округ</t>
+          <t>Новосибирская область</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>21980</v>
+        <v>707</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Камчатская область</t>
+          <t>другие</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20025</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.1</v>
+        <v>679</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0.005</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Свердловская область</t>
+          <t>Итого</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>12162</v>
+        <v>12938563</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Владимирская область</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>11590</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Курская область</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>8400</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Новгородская область</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>4278</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Новосибирская область</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>2040</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Калужская область</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>1345</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Томская область</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>1250</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Республика Северная Осетия - Алания</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>1060</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>другие</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>1068</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>0.005</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Итого</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>19978780</v>
-      </c>
-      <c r="C34" t="n">
         <v>100</v>
       </c>
     </row>
